--- a/ApolloQA/Data/RatingManual/GA/VA00049.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00049.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.ClassCodeFactors" sheetId="1" r:id="R93fad0ee09bd400d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.ClassCodeFactors" sheetId="1" r:id="R6cf6deb6ec594e9f"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,210 +12,138 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Class Code</x:v>
+        <x:v>Organization Type</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Class Code Factor</x:v>
+        <x:v>Organization Type Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1601</x:v>
+        <x:v>Churches and Religious Organizations</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.7431</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1602</x:v>
+        <x:v>Corporation</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2377</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1604</x:v>
+        <x:v>Counties/Townships/Parishes, Etc.</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9681</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1605</x:v>
+        <x:v>Districts/Precincts</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8097</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1606</x:v>
+        <x:v>Federal</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0017</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1608</x:v>
+        <x:v>Indian Tribes</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2364</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1609</x:v>
+        <x:v>Individual</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1135</x:v>
+        <x:v>1.0623</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1610</x:v>
+        <x:v>LLC</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1718</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1611</x:v>
+        <x:v>Municipality</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5166</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1612</x:v>
+        <x:v>Other</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9972</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1613</x:v>
+        <x:v>Other Non-Profit Associations and Organizations</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9599</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1625</x:v>
+        <x:v>Partnership</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0659</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1629</x:v>
+        <x:v>Rural</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0689</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1632</x:v>
+        <x:v>Schools</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1594</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1633</x:v>
+        <x:v>Social Service Agencies and Organizations</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.8495</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>1634</x:v>
+        <x:v>States</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9813</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1635</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0890</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1636</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0563</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1637</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0879</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1638</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0804</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1640</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.0586</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1641</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8397</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1642</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.2769</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1643</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>1.2813</x:v>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c t="str">
-        <x:v>1699</x:v>
-      </x:c>
-      <x:c t="str">
-        <x:v>0.8960</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
